--- a/lib/PHPExcel/templates/OT_.Default.xlsx
+++ b/lib/PHPExcel/templates/OT_.Default.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM-TEST\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6C90095-010A-4405-B2D3-8287D32BCBEE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C949D1-F8A0-41A5-AF21-BA355941B38E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,80 +529,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>162962</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376B54B1-1CF3-4563-8CA0-5872E8592DCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="314325"/>
-          <a:ext cx="743987" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -628,7 +554,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -651,39 +577,34 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>162962</xdr:colOff>
+      <xdr:colOff>349955</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
+        <xdr:cNvPr id="5" name="Image 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9964A9C6-3E43-4559-9B03-03EB8D8FC535}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1640CBEC-01A4-4817-8264-D01B1B1D1D39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -697,16 +618,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="314325"/>
-          <a:ext cx="743987" cy="762000"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="930980" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -715,21 +633,16 @@
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -757,7 +670,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -776,6 +689,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>349955</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BA3CF8-BA93-47EC-A9E6-E86E0AB2A108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="930980" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -845,7 +819,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="2016 W43"/>
+      <sheetName val="2016 W49"/>
       <sheetName val="DEVIS"/>
       <sheetName val="CLIENTS"/>
       <sheetName val="TEchnip"/>
@@ -853,13 +827,24 @@
       <sheetName val="A&amp;D"/>
       <sheetName val="SBER"/>
       <sheetName val="Safran AE"/>
+      <sheetName val="Otto Fuchs"/>
+      <sheetName val="Listes"/>
+      <sheetName val="2016 W43"/>
       <sheetName val="Usinage MRI"/>
-      <sheetName val="Listes"/>
+      <sheetName val="2016 W40"/>
+      <sheetName val="2016 W45"/>
+      <sheetName val="2017 W01"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2">
+            <v>8001</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -868,6 +853,9 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="3">
+          <cell r="B3" t="str">
+            <v>0            Forecast</v>
+          </cell>
           <cell r="G3" t="str">
             <v>RT</v>
           </cell>
@@ -888,6 +876,11 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1002,7 +995,7 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>90          Attente Rapport</v>
+            <v>90          Emission Rapport</v>
           </cell>
         </row>
         <row r="20">
